--- a/license_plate.xlsx
+++ b/license_plate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t xml:space="preserve">MHI2DE1433 </t>
+  </si>
+  <si>
+    <t>21 BH 2345 AA</t>
   </si>
 </sst>
 </file>
@@ -40,7 +43,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -101,13 +104,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -428,7 +431,7 @@
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,12 +447,12 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/license_plate.xlsx
+++ b/license_plate.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,12 +44,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -104,14 +98,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -427,8 +418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -439,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -448,7 +439,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
